--- a/Python-Internet/Python-Links.xlsx
+++ b/Python-Internet/Python-Links.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkum17\PycharmProjects\Pythin-GIT\Python_material\Python-Internet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB254F1-C291-48BD-9817-2FD6EFC81C1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C94029-FBF1-4927-8D8C-31CA140F2FDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Python" sheetId="1" r:id="rId1"/>
+    <sheet name="Others" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="161">
   <si>
     <t>https://towardsdatascience.com/i-thought-i-was-mastering-python-until-i-discovered-these-tricks-e40d9c71f4e2</t>
   </si>
@@ -159,33 +161,21 @@
     <t>https://github.com/harshibar/common-intern</t>
   </si>
   <si>
-    <t>Automated Job Application</t>
-  </si>
-  <si>
     <t>https://towardsdatascience.com/10-smooth-python-tricks-for-python-gods-2e4f6180e5e3</t>
   </si>
   <si>
     <t>https://towardsdatascience.com/5-free-books-for-learning-python-for-data-science-87be443c084</t>
   </si>
   <si>
-    <t>https://realpython.com/lessons/python-zip-function-overview/</t>
-  </si>
-  <si>
     <t>https://medium.com/better-programming/5-advanced-operations-using-dictionaries-in-python-5f8edb4719fa</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
     <t xml:space="preserve"> Tricks</t>
   </si>
   <si>
-    <t xml:space="preserve"> Excel</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pandas Cheet Sheet</t>
   </si>
   <si>
@@ -198,9 +188,6 @@
     <t xml:space="preserve"> Decorators</t>
   </si>
   <si>
-    <t xml:space="preserve"> Retry Decorator</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Instance Vs Type</t>
   </si>
   <si>
@@ -216,15 +203,9 @@
     <t xml:space="preserve"> Website</t>
   </si>
   <si>
-    <t xml:space="preserve"> AWS API work</t>
-  </si>
-  <si>
     <t xml:space="preserve"> job</t>
   </si>
   <si>
-    <t xml:space="preserve"> Automate Excel Reporting</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pandas Query for SQL</t>
   </si>
   <si>
@@ -252,9 +233,6 @@
     <t xml:space="preserve"> Books to Read</t>
   </si>
   <si>
-    <t xml:space="preserve"> Zip</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dictionary</t>
   </si>
   <si>
@@ -282,9 +260,6 @@
     <t>Aws, Google sheet</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Decorators</t>
   </si>
   <si>
@@ -292,9 +267,6 @@
   </si>
   <si>
     <t>MultiThreading</t>
-  </si>
-  <si>
-    <t>Exceptions</t>
   </si>
   <si>
     <t>Visualization</t>
@@ -340,9 +312,6 @@
     </r>
   </si>
   <si>
-    <t>Collections library, generators, itertools</t>
-  </si>
-  <si>
     <t>https://towardsdatascience.com/a-beginners-guide-to-creating-clean-and-appetizing-python-charts-f7e1cf1899d2</t>
   </si>
   <si>
@@ -365,13 +334,223 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>Automated Job Application(selenium)</t>
+  </si>
+  <si>
+    <t>Zip, Clear, Del, Comprehension, Retrieving, iterations, merging</t>
+  </si>
+  <si>
+    <t>'.Join(strings or list)</t>
+  </si>
+  <si>
+    <t>Numerizer, faker, emot, chartify, missingo</t>
+  </si>
+  <si>
+    <t>collections.NamedTuple, _make, _asdict,  map, typing.NamedTuple, DataClass, Frozen-Dataclass</t>
+  </si>
+  <si>
+    <t>timit, sys.getsizeof</t>
+  </si>
+  <si>
+    <t>Additional Remarks</t>
+  </si>
+  <si>
+    <t>Exceptions with decorator example</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/21853677/python-custom-exception-handler-for-a-class</t>
+  </si>
+  <si>
+    <t>Exceptions -suppress</t>
+  </si>
+  <si>
+    <t>from contextlib import suppress, with suppress(Exception):</t>
+  </si>
+  <si>
+    <t>@exception_handler</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>A decorator in Python is a function that takes another function as its argument, and returns yet another function.</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/do-you-have-these-python-speedup-skills-3fd9e7758765</t>
+  </si>
+  <si>
+    <t>Python Speed up Skills</t>
+  </si>
+  <si>
+    <t>https://medium.com/swlh/how-aws-waf-saved-us-6dc21343f1f5</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AWF</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>https://dev.to/asim_ansari7/deploy-a-react-node-app-to-production-on-aws-2gdf</t>
+  </si>
+  <si>
+    <t>Java Scripts</t>
+  </si>
+  <si>
+    <t>React/Node AWS Dep</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/are-you-using-python-with-apis-learn-how-to-use-a-retry-decorator-27b6734c3e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retry Decorator with API</t>
+  </si>
+  <si>
+    <t>Good Example, functools-wraps, logging, random, time.sleep()</t>
+  </si>
+  <si>
+    <t>Collections library, generators, itertools, collections.deque</t>
+  </si>
+  <si>
+    <t>Prefer local variable than global</t>
+  </si>
+  <si>
+    <t>Generators, next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if, vlookup(merge), pivot_table </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excel in Pandas</t>
+  </si>
+  <si>
+    <t>parse_dates=['Date'], to_excel(), openpyxl {load_workbook, BarChart() - Reference}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate Excel Reporting - chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AWS API work (Stock Market)</t>
+  </si>
+  <si>
+    <t>Dataframe(), pd.combine(), load_workbook(skiprows=3), pd.to_excel()</t>
+  </si>
+  <si>
+    <t>openpyxl.sheet['F9'].style = 'Currency'</t>
+  </si>
+  <si>
+    <t>Excel with pandas</t>
+  </si>
+  <si>
+    <t>df.to_excel(file_path, sheet_name = 'Quarterly Sales', startrow=3)</t>
+  </si>
+  <si>
+    <t>import xlsxwriter</t>
+  </si>
+  <si>
+    <t>writer = pd.ExcelWriter('stock_market_data.xlsx', engine='xlsxwriter')
+output_data.to_excel(writer, sheet_name='Sheet1')
+writer.save()</t>
+  </si>
+  <si>
+    <t>pd.read_json(http-request'), pd.DataFrame(pd.np.empty((0,4))), df.append(), df.columns, df.set_indef(), inplace=True, series.fillna(), boto3, AWS bucket, cron to schedule</t>
+  </si>
+  <si>
+    <t>Parallel computing and abstract class</t>
+  </si>
+  <si>
+    <t>isinstance() considers inheritance, but checking the type() of an object using equality (==) statement does not.</t>
+  </si>
+  <si>
+    <t>type(a) == Rectangle, isinstance(a, Rectangle) # square is sub class of Rectangle class</t>
+  </si>
+  <si>
+    <t>{key_expr: value_expr for item in iterable}</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/how-to-loop-through-your-own-objects-in-python-1609c81e11ff</t>
+  </si>
+  <si>
+    <t>Loop Through Own object</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/what-does-name-mean-in-python-c3f80377b46b</t>
+  </si>
+  <si>
+    <t>__name__</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/level-up-your-code-with-python-decorators-c1966d78607</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/stop-using-pandas-and-start-using-spark-with-scala-f7364077c2e0</t>
+  </si>
+  <si>
+    <t>Pandas to Spark</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2020/06/sql-for-beginners-analysts-sqlite-database-python/</t>
+  </si>
+  <si>
+    <t>Info with pandas</t>
+  </si>
+  <si>
+    <t>pd.to_sql() , pd.read_sql_query()</t>
+  </si>
+  <si>
+    <t>sphinx</t>
+  </si>
+  <si>
+    <t>pd.read_sql</t>
+  </si>
+  <si>
+    <t>Database SQLlite with pandas</t>
+  </si>
+  <si>
+    <t>head(), tail(), query(), @</t>
+  </si>
+  <si>
+    <t>groupby(), merge(on, how)</t>
+  </si>
+  <si>
+    <t>fill_value, fillna</t>
+  </si>
+  <si>
+    <t>1) Setup , 2) Importing. 3) Exporting, 4) Viewing and Inspecting, 5) Selecting, 6) Adding / Dropping
+7) Combining, 8) Filtering, 9) Sorting, 10) Aggregating, 11) Cleaning, 12) Other</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2020/06/data-structures-python/</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f579O7Ef8C0</t>
+  </si>
+  <si>
+    <t>Write file into S3</t>
+  </si>
+  <si>
+    <t>Pandas - S3</t>
+  </si>
+  <si>
+    <t>buffer object from IO.StringIO()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +626,16 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,8 +654,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -476,11 +681,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,9 +718,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -509,11 +727,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,25 +1045,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="114.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="103" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -818,512 +1072,804 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>128</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
+      <c r="D7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>101</v>
+      <c r="B52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
-    <sortCondition ref="A2:A41"/>
-    <sortCondition ref="B2:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
+    <sortCondition ref="A2:A51"/>
+    <sortCondition ref="B2:B51"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C53" r:id="rId1" xr:uid="{6D5641D2-5A34-4614-90C6-FA8045BDDFB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5179BCD-3D8E-4182-8711-2D20E6E793C3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0F9220-10A8-42F4-9E52-F64E786EC599}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>